--- a/data/trans_dic/P2A_psíq_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,5</t>
+          <t>0,37; 4,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,61</t>
+          <t>0,84; 4,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,25</t>
+          <t>0,41; 3,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,2</t>
+          <t>0,75; 4,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,21</t>
+          <t>1,23; 5,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,44</t>
+          <t>0,35; 2,45</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,19</t>
+          <t>1,14; 3,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,46</t>
+          <t>1,0; 3,43</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,93</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,34</t>
+          <t>0,4; 2,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,51</t>
+          <t>1,3; 4,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,87</t>
+          <t>1,7; 4,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,73</t>
+          <t>0,6; 2,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,31</t>
+          <t>0,38; 2,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,3</t>
+          <t>2,01; 5,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,92</t>
+          <t>1,08; 2,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,38</t>
+          <t>0,71; 2,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,21</t>
+          <t>0,28; 1,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,48</t>
+          <t>1,93; 4,37</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>0,0; 1,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,32</t>
+          <t>1,0; 6,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,47 +1019,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,88</t>
+          <t>0,91; 3,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,27</t>
+          <t>0,78; 4,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,61</t>
+          <t>0,26; 2,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,71</t>
+          <t>1,27; 3,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,75</t>
+          <t>0,16; 1,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,21</t>
+          <t>1,26; 4,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,32</t>
+          <t>0,13; 1,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,37</t>
+          <t>1,44; 3,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,34</t>
+          <t>0,44; 3,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,2</t>
+          <t>1,47; 4,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,22</t>
+          <t>1,44; 5,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,75</t>
+          <t>1,98; 4,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,13</t>
+          <t>2,54; 7,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,98</t>
+          <t>0,99; 3,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,87</t>
+          <t>0,35; 1,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,0</t>
+          <t>2,03; 4,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,13</t>
+          <t>2,31; 5,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,77</t>
+          <t>0,56; 1,63</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,53</t>
+          <t>0,4; 3,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,18</t>
+          <t>1,59; 7,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,3</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,33</t>
+          <t>0,49; 4,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,33; 6,62</t>
+          <t>1,45; 6,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,28</t>
+          <t>0,83; 4,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,08</t>
+          <t>0,5; 3,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 5,9</t>
+          <t>2,01; 5,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,04</t>
+          <t>0,51; 2,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,21</t>
+          <t>0,15; 1,36</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,91</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,03</t>
+          <t>0,71; 4,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,41</t>
+          <t>1,98; 6,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,02</t>
+          <t>1,09; 4,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,63</t>
+          <t>2,19; 5,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,89</t>
+          <t>0,0; 1,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,62</t>
+          <t>1,12; 3,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,09</t>
+          <t>0,2; 1,9</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,51; 5,19</t>
+          <t>2,7; 5,33</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,69</t>
+          <t>0,27; 1,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,01</t>
+          <t>0,87; 2,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,51</t>
+          <t>0,16; 1,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,05</t>
+          <t>2,41; 6,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,63</t>
+          <t>0,29; 1,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,49</t>
+          <t>0,72; 2,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,89</t>
+          <t>0,31; 1,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 50,54</t>
+          <t>5,29; 49,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,32</t>
+          <t>0,37; 1,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,35</t>
+          <t>0,92; 2,26</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,33</t>
+          <t>0,35; 1,3</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,48; 34,84</t>
+          <t>4,63; 33,72</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,03</t>
+          <t>0,43; 2,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,96</t>
+          <t>0,37; 2,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,47 +1719,47 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,97</t>
+          <t>1,06; 3,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,29</t>
+          <t>0,53; 2,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,96</t>
+          <t>1,07; 3,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,63</t>
+          <t>0,72; 2,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,94</t>
+          <t>1,31; 2,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,85</t>
+          <t>0,65; 1,78</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,14</t>
+          <t>0,82; 2,06</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,87</t>
+          <t>0,72; 1,92</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,75</t>
+          <t>1,38; 2,72</t>
         </is>
       </c>
     </row>
@@ -1844,52 +1844,52 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,31</t>
+          <t>0,63; 1,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,44</t>
+          <t>1,41; 2,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,31</t>
+          <t>0,64; 1,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,94</t>
+          <t>1,82; 2,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,56</t>
+          <t>0,79; 1,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,59</t>
+          <t>1,65; 2,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,11</t>
+          <t>1,17; 2,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,62</t>
+          <t>2,78; 15,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,28</t>
+          <t>0,77; 1,27</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,31</t>
+          <t>1,65; 2,34</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 10,44</t>
+          <t>2,54; 9,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_psíq_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,17 +671,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,95%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 7,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,21</t>
+          <t>0,39; 3,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 6,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,52</t>
+          <t>1,29; 6,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,45</t>
+          <t>0,51; 2,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,41; 5,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,43</t>
+          <t>0,97; 3,58</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,85%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,85</t>
+          <t>1,24; 4,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,25</t>
+          <t>1,88; 5,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,37</t>
+          <t>1,84; 4,22</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,91</t>
+          <t>0,89; 3,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,72</t>
+          <t>0,27; 3,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,97</t>
+          <t>1,24; 3,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,39</t>
+          <t>0,16; 1,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,44</t>
+          <t>1,41; 3,37</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,17 +1111,17 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,15</t>
+          <t>0,28; 2,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 1,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,25; 2,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,73</t>
+          <t>1,69; 5,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,23</t>
+          <t>0,71; 2,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,96</t>
+          <t>0,42; 2,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,0</t>
+          <t>1,23; 3,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,63</t>
+          <t>0,48; 1,52</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,36</t>
+          <t>0,13; 1,33</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,7%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,38</t>
+          <t>1,98; 6,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,59</t>
+          <t>2,17; 5,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,33</t>
+          <t>2,65; 5,28</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,28%</t>
+          <t>18,03%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,04</t>
+          <t>2,33; 6,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 49,96</t>
+          <t>5,18; 65,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 33,72</t>
+          <t>4,49; 47,95</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,65%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,02</t>
+          <t>0,5; 2,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,99</t>
+          <t>1,31; 2,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,72</t>
+          <t>0,93; 2,33</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1806,17 +1806,17 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>5,26%</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1859,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 2,9</t>
+          <t>1,61; 2,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,57</t>
+          <t>0,84; 1,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,05</t>
+          <t>1,21; 2,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,78; 15,34</t>
+          <t>2,69; 24,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,27</t>
+          <t>0,79; 1,31</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,57</t>
+          <t>1,03; 1,58</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,54; 9,75</t>
+          <t>2,36; 14,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_psíq_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,13</t>
+          <t>0,37; 4,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,66</t>
+          <t>2,33; 7,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,95</t>
+          <t>0,95; 5,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,13</t>
+          <t>0,36; 3,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 6,5</t>
+          <t>1,58; 6,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,62</t>
+          <t>0,75; 4,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,19</t>
+          <t>1,22; 6,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,78</t>
+          <t>0,54; 2,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,96</t>
+          <t>2,36; 6,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,91</t>
+          <t>1,19; 4,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,58</t>
+          <t>0,97; 3,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 1,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,83</t>
+          <t>0,39; 2,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,4</t>
+          <t>0,0; 1,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,83</t>
+          <t>1,43; 4,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,78</t>
+          <t>1,74; 4,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,75</t>
+          <t>0,6; 2,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,14</t>
+          <t>0,38; 2,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,03</t>
+          <t>1,83; 4,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,76</t>
+          <t>1,09; 2,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,42</t>
+          <t>0,69; 2,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,25</t>
+          <t>0,21; 1,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,22</t>
+          <t>1,82; 4,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,99</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 6,4</t>
+          <t>0,99; 5,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,47 +1020,47 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,84</t>
+          <t>0,96; 3,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,31</t>
+          <t>0,93; 4,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,07</t>
+          <t>0,52; 3,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,93</t>
+          <t>1,21; 3,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,49</t>
+          <t>0,16; 1,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,27</t>
+          <t>1,29; 4,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,54</t>
+          <t>0,16; 1,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,37</t>
+          <t>1,32; 3,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,05</t>
+          <t>0,29; 3,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,87</t>
+          <t>0,28; 2,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,02</t>
+          <t>1,25; 4,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,0</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,17</t>
+          <t>0,25; 2,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,01</t>
+          <t>1,75; 5,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 7,19</t>
+          <t>2,37; 7,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,66</t>
+          <t>0,65; 2,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,09</t>
+          <t>0,45; 2,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,27</t>
+          <t>1,19; 3,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,08</t>
+          <t>2,26; 5,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,52</t>
+          <t>0,47; 1,56</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,68</t>
+          <t>0,39; 3,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,28</t>
+          <t>1,09; 6,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 2,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,37</t>
+          <t>0,48; 4,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,6</t>
+          <t>1,34; 6,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,42</t>
+          <t>0,47; 4,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 1,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,14</t>
+          <t>0,58; 3,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,69</t>
+          <t>2,02; 5,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,8</t>
+          <t>0,67; 3,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,33</t>
+          <t>0,11; 1,19</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,22 +1425,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,0</t>
+          <t>0,73; 4,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 1,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,41</t>
+          <t>2,11; 6,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,44 +1450,44 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,97</t>
+          <t>1,1; 5,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,2</t>
+          <t>0,34; 3,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,54</t>
+          <t>2,29; 5,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,08</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,84</t>
+          <t>1,13; 3,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,9</t>
+          <t>0,18; 1,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,28</t>
+          <t>2,54; 5,31</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,85</t>
+          <t>0,29; 1,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,93</t>
+          <t>0,92; 3,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,37</t>
+          <t>0,16; 1,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,17</t>
+          <t>2,42; 6,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,64</t>
+          <t>0,29; 1,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,44</t>
+          <t>0,59; 2,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,84</t>
+          <t>0,31; 1,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,18; 65,81</t>
+          <t>5,23; 59,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,29</t>
+          <t>0,32; 1,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,26</t>
+          <t>0,94; 2,41</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,3</t>
+          <t>0,36; 1,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 47,95</t>
+          <t>4,4; 50,18</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,06</t>
+          <t>0,43; 2,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,01</t>
+          <t>0,27; 1,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,85</t>
+          <t>0,4; 1,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,34</t>
+          <t>0,5; 2,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,2</t>
+          <t>0,53; 2,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,3</t>
+          <t>1,03; 3,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,58</t>
+          <t>0,67; 2,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,97</t>
+          <t>1,34; 3,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,78</t>
+          <t>0,62; 1,85</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,06</t>
+          <t>0,86; 2,1</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,92</t>
+          <t>0,72; 1,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,33</t>
+          <t>1,0; 2,29</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,35</t>
+          <t>0,6; 1,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,43</t>
+          <t>1,34; 2,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,64; 1,32</t>
+          <t>0,66; 1,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,75</t>
+          <t>1,61; 2,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,64</t>
+          <t>0,85; 1,59</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,62</t>
+          <t>1,64; 2,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,09</t>
+          <t>1,23; 2,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,69; 24,34</t>
+          <t>2,67; 25,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,31</t>
+          <t>0,81; 1,31</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,34</t>
+          <t>1,63; 2,35</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,58</t>
+          <t>1,02; 1,58</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,36; 14,72</t>
+          <t>2,33; 15,07</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4511</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13037</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7112</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3449</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2131</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9560</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5908</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8275</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6642</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22597</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13020</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11724</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1002; 11150</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6881; 23233</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2791; 15526</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1111; 9473</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7076</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4546; 19120</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2177; 13829</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3536; 17501</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2875; 14674</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13733; 35022</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6942; 24138</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5823; 20223</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2788</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6234</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>13946</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15143</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7193</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5050</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15549</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17931</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13427</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6182</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>29495</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 9158</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1972; 15011</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6771</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7387; 25310</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8778; 23315</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3132; 13946</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2006; 11066</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9443; 25477</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10836; 29137</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7105; 23158</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2138; 13357</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18758; 42491</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2091</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9098</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6499</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6923</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7834</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16021</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4089</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14333</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7305</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3218; 19032</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1820</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3044; 11772</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6870</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3162; 15627</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1761; 11176</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4234; 12914</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1046; 10337</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8559; 28727</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1061; 9943</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8806; 21339</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4304</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4254</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>10204</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2960</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11639</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>16841</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6530</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7264</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>15893</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27044</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1055; 11117</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1056; 10457</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4632; 18086</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3165</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>920; 8433</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6799; 19676</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9160; 27575</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3075; 11706</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3273; 14952</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>9069; 25524</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>17137; 40171</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3737; 12285</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2641</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7501</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1908</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3263</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7419</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4086</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5904</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14920</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5994</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>800; 7818</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2324; 13984</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6058</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4652</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1005; 8943</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2947; 15232</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1034; 10241</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2873</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2395; 12971</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>8716; 24426</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2868; 13029</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>492; 5227</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5011</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10125</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7116</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9386</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12128</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>19510</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4911</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1990; 11107</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4874</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>5684; 17256</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1970</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3087; 14605</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>922; 9369</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5875; 14988</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6722</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6255; 20770</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>990; 10242</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>13393; 27981</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4612</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>11260</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3332</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>24070</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4760</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>9265</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>6184</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>241646</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>9372</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>20526</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>9516</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>265716</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1768; 10356</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>6127; 19866</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1049; 10026</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>15118; 38168</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1862; 10415</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>4061; 16028</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2157; 13450</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>44393; 505357</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3973; 16164</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>12802; 32701</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>4853; 17015</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>64828; 739421</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>7818</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>7116</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>7239</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>12818</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>9086</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>15099</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>11934</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>14415</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>16904</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>22215</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>19173</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>27233</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3201; 15612</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2068; 15119</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3140; 14269</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>4622; 22435</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>4178; 17037</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>8448; 26114</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>5549; 21611</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>9649; 22037</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>9459; 28318</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>13732; 33735</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>11527; 29495</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>16464; 37670</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>29741</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>63511</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>31901</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>72985</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>39476</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>74215</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>57288</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>304229</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>69216</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>137726</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>89190</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>377213</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>19763; 41995</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>46068; 81624</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>22447; 45701</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>55572; 96163</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>28622; 53787</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>58274; 95142</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>43518; 74307</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>99266; 948285</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>53688; 87187</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>113673; 164089</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>70551; 109519</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>166849; 1081122</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>